--- a/CoI_results_summary.xlsx
+++ b/CoI_results_summary.xlsx
@@ -1821,26 +1821,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Potential future income lost due to cognitive losses</t>
+          <t>Potential future income lost due to cognitive losses (undiscounted)</t>
         </is>
       </c>
       <c r="B3">
-        <v>1300239783.214664</v>
+        <v>22785570.88689384</v>
       </c>
       <c r="C3">
-        <v>727162437.2427698</v>
+        <v>12742889.02245209</v>
       </c>
       <c r="D3">
-        <v>2302893713.949045</v>
+        <v>40356208.63286965</v>
       </c>
       <c r="E3">
-        <v>238613757.3089392</v>
+        <v>12266859.94652215</v>
       </c>
       <c r="F3">
-        <v>1673056031.670346</v>
+        <v>86009894.2099656</v>
       </c>
       <c r="G3">
-        <v>5301095834.815912</v>
+        <v>272523264.8031505</v>
       </c>
     </row>
   </sheetData>
